--- a/data/inscriptions-cantine/2023-10-01.xlsx
+++ b/data/inscriptions-cantine/2023-10-01.xlsx
@@ -393,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,62 @@
       </c>
       <c r="G4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/inscriptions-cantine/2023-10-01.xlsx
+++ b/data/inscriptions-cantine/2023-10-01.xlsx
@@ -15,14 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Semaine</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Nom de famille</t>
   </si>
   <si>
+    <t>Prénom</t>
+  </si>
+  <si>
     <t>Lundi</t>
   </si>
   <si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Semaine du 30</t>
   </si>
   <si>
     <t>Peltier</t>
@@ -393,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,110 +428,54 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>30</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
